--- a/va_facility_data_2025-02-20/Franklin Delano Roosevelt Hospital - Facility Data.xlsx"; filename*=UTF-8''Franklin%20Delano%20Roosevelt%20Hospital%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Franklin Delano Roosevelt Hospital - Facility Data.xlsx"; filename*=UTF-8''Franklin%20Delano%20Roosevelt%20Hospital%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R8e1df1f0ec87493691e9ac07a59e0ff8"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rb9bcbad1433f4ce6bb981c0e9fe7a3d5"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R3458c925d8ff4bc7aa11f308bfc447df"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R2b2779c132a94bcfb3c15b7a281ad25c"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R192054c011c24748b5c2559307a922d9"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R9d42de1cb979484f9ac7ec2629dd11d4"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R313b5833013d43f9b4687a343772fe26"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R524ee16d707d43e8827195fbad6363d2"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R5000d0abf66744e099ddf54c96499c3e"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R53c90031b86343afadadb98084239856"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R66cc205dc54b4bac8f13b72af672294e"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rb4981f31901f4669b824e374df2b6c12"/>
   </x:sheets>
 </x:workbook>
 </file>
